--- a/data/trans_dic/P39A1_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P39A1_2023-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>75,71; 85,06</t>
+          <t>75,11; 84,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,64; 87,45</t>
+          <t>80,93; 87,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>79,14; 85,01</t>
+          <t>79,41; 85,24</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>67,16; 76,67</t>
+          <t>67,08; 77,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62,29; 70,2</t>
+          <t>62,32; 70,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>66,04; 72,19</t>
+          <t>66,04; 72,35</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>51,25; 62,95</t>
+          <t>51,83; 63,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43,4; 53,34</t>
+          <t>43,11; 53,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>48,41; 56,06</t>
+          <t>48,49; 56,2</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,63; 96,75</t>
+          <t>90,44; 96,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>74,73; 93,35</t>
+          <t>74,76; 93,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82,23; 94,11</t>
+          <t>82,02; 94,12</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26,15; 38,38</t>
+          <t>26,02; 38,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,46; 24,86</t>
+          <t>16,62; 24,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,25; 29,37</t>
+          <t>21,97; 29,27</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>72,79; 82,6</t>
+          <t>72,88; 82,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>73,93; 82,94</t>
+          <t>74,49; 83,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>74,92; 81,87</t>
+          <t>74,94; 81,73</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>42,29; 51,6</t>
+          <t>41,59; 50,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>44,6; 72,31</t>
+          <t>44,5; 71,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>45,13; 64,02</t>
+          <t>45,04; 62,41</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>90,95; 95,49</t>
+          <t>91,1; 95,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>88,35; 93,69</t>
+          <t>88,51; 93,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>90,7; 94,13</t>
+          <t>90,42; 94,07</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>70,06; 73,84</t>
+          <t>70,09; 74,18</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>67,34; 72,33</t>
+          <t>67,33; 72,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>69,16; 72,42</t>
+          <t>69,25; 72,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A1_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P39A1_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>75,11; 84,78</t>
+          <t>75,71; 85,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,93; 87,58</t>
+          <t>80,64; 87,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>79,41; 85,24</t>
+          <t>79,14; 85,01</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>67,08; 77,61</t>
+          <t>67,16; 76,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62,32; 70,03</t>
+          <t>62,29; 70,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>66,04; 72,35</t>
+          <t>66,04; 72,19</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>51,83; 63,16</t>
+          <t>51,25; 62,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43,11; 53,38</t>
+          <t>43,4; 53,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>48,49; 56,2</t>
+          <t>48,41; 56,06</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,44; 96,79</t>
+          <t>90,63; 96,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>74,76; 93,25</t>
+          <t>74,73; 93,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82,02; 94,12</t>
+          <t>82,23; 94,11</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26,02; 38,02</t>
+          <t>26,15; 38,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,62; 24,43</t>
+          <t>16,46; 24,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,97; 29,27</t>
+          <t>22,25; 29,37</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>72,88; 82,39</t>
+          <t>72,79; 82,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>74,49; 83,29</t>
+          <t>73,93; 82,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>74,94; 81,73</t>
+          <t>74,92; 81,87</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>41,59; 50,97</t>
+          <t>42,29; 51,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>44,5; 71,24</t>
+          <t>44,6; 72,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>45,04; 62,41</t>
+          <t>45,13; 64,02</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>91,1; 95,46</t>
+          <t>90,95; 95,49</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>88,51; 93,85</t>
+          <t>88,35; 93,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>90,42; 94,07</t>
+          <t>90,7; 94,13</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>70,09; 74,18</t>
+          <t>70,06; 73,84</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>67,33; 72,25</t>
+          <t>67,34; 72,33</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>69,25; 72,49</t>
+          <t>69,16; 72,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A1_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P39A1_2023-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>80,35%</t>
+          <t>80,99%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>84,36%</t>
+          <t>84,41%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>82,39%</t>
+          <t>82,63%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>75,71; 85,06</t>
+          <t>75,73; 85,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,64; 87,45</t>
+          <t>80,62; 87,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>79,14; 85,01</t>
+          <t>79,18; 85,44</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>72,47%</t>
+          <t>72,86%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>66,21%</t>
+          <t>66,19%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>69,31%</t>
+          <t>69,61%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>67,16; 76,67</t>
+          <t>67,5; 77,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62,29; 70,2</t>
+          <t>62,29; 70,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>66,04; 72,19</t>
+          <t>66,11; 72,49</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>57,17%</t>
+          <t>57,38%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>48,22%</t>
+          <t>48,21%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>52,42%</t>
+          <t>52,62%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>51,25; 62,95</t>
+          <t>51,32; 63,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43,4; 53,34</t>
+          <t>43,43; 53,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>48,41; 56,06</t>
+          <t>48,56; 56,33</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>94,48%</t>
+          <t>94,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>87,95%</t>
+          <t>74,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>90,77%</t>
+          <t>82,51%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,63; 96,75</t>
+          <t>90,65; 96,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>74,73; 93,35</t>
+          <t>39,42; 93,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82,23; 94,11</t>
+          <t>55,83; 94,01</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>31,61%</t>
+          <t>31,4%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>20,11%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>25,45%</t>
+          <t>25,32%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26,15; 38,38</t>
+          <t>26,06; 38,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,46; 24,86</t>
+          <t>16,49; 24,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,25; 29,37</t>
+          <t>22,14; 29,05</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>78,21%</t>
+          <t>78,34%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>79,1%</t>
+          <t>79,2%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>78,64%</t>
+          <t>78,75%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>72,79; 82,6</t>
+          <t>72,86; 82,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>73,93; 82,94</t>
+          <t>74,18; 82,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>74,92; 81,87</t>
+          <t>75,01; 82,02</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>46,49%</t>
+          <t>46,06%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>59,83%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>54,01%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>50,71%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>42,29; 51,6</t>
+          <t>41,63; 51,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>44,6; 72,31</t>
+          <t>44,5; 81,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>45,13; 64,02</t>
+          <t>44,85; 72,95</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>93,43%</t>
+          <t>94,91%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>91,81%</t>
+          <t>92,08%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>92,61%</t>
+          <t>93,68%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>90,95; 95,49</t>
+          <t>92,07; 97,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>88,35; 93,69</t>
+          <t>88,94; 93,83</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>90,7; 94,13</t>
+          <t>91,74; 96,13</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>71,92%</t>
+          <t>73,24%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>69,28%</t>
+          <t>68,77%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>70,53%</t>
+          <t>70,97%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>70,06; 73,84</t>
+          <t>70,56; 79,7</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>67,34; 72,33</t>
+          <t>64,64; 74,45</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>69,16; 72,42</t>
+          <t>68,27; 74,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A1_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P39A1_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>75,73; 85,66</t>
+          <t>75,63; 85,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,62; 87,57</t>
+          <t>80,64; 87,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>79,18; 85,44</t>
+          <t>79,45; 85,33</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>67,5; 77,19</t>
+          <t>67,79; 77,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62,29; 70,15</t>
+          <t>62,12; 70,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>66,11; 72,49</t>
+          <t>66,48; 72,96</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>51,32; 63,17</t>
+          <t>51,18; 62,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43,43; 53,34</t>
+          <t>42,82; 52,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>48,56; 56,33</t>
+          <t>48,78; 56,66</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,65; 96,75</t>
+          <t>91,11; 96,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>39,42; 93,32</t>
+          <t>42,34; 92,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>55,83; 94,01</t>
+          <t>54,87; 94,0</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26,06; 38,29</t>
+          <t>25,63; 37,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,49; 24,5</t>
+          <t>16,75; 24,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,14; 29,05</t>
+          <t>21,67; 28,88</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>72,86; 82,71</t>
+          <t>72,67; 82,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>74,18; 82,99</t>
+          <t>74,47; 83,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>75,01; 82,02</t>
+          <t>75,46; 81,95</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>41,63; 51,57</t>
+          <t>40,96; 51,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>44,5; 81,4</t>
+          <t>44,66; 81,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>44,85; 72,95</t>
+          <t>44,91; 72,7</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>92,07; 97,94</t>
+          <t>91,99; 97,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>88,94; 93,83</t>
+          <t>88,69; 93,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>91,74; 96,13</t>
+          <t>91,84; 96,5</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>70,56; 79,7</t>
+          <t>70,24; 80,19</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>64,64; 74,45</t>
+          <t>65,0; 74,24</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>68,27; 74,87</t>
+          <t>68,27; 74,97</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que sí diría que estar con dolor o malestar, mareado o a punto de desmayarse es un síntoma de que a alguien le está dando un ataque al corazón</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>250608</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>239463</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>490072</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>234025; 263254</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>228770; 248394</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>471249; 506098</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>707</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>369366</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>318928</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>688294</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>343672; 393331</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>299334; 337321</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>657385; 721492</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>155178</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>140752</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>295930</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>138394; 169907</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>125011; 154256</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>274335; 318658</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>230059</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>270332</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>500390</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>221827; 235816</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>153674; 336755</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>332725; 570024</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>55459</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>41447</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>96907</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>45275; 66417</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>34507; 50653</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>82947; 110522</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>189793</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>172449</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>362242</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>176057; 200094</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>162143; 181347</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>347089; 376943</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>266921</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>473254</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>740175</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>237327; 295716</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>353278; 641580</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>615513; 996316</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>921</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1579</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>823611</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>614532</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1438143</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>798225; 848851</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>591957; 626452</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1409967; 1481408</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2135</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>3197</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>5332</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>2340996</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>2271157</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>4612153</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>2245141; 2563337</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>2146870; 2451928</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>4437255; 4872637</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>